--- a/10_Calculators/OpenCoreCalcs.xlsx
+++ b/10_Calculators/OpenCoreCalcs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="PickerAttributes - PickerAttrib" sheetId="2" r:id="rId5"/>
     <sheet name="ScanPolicy - ScanPolicy Calcula" sheetId="3" r:id="rId6"/>
     <sheet name="Expose Sensitive Data - Sensiti" sheetId="4" r:id="rId7"/>
-    <sheet name="Logging Targets - Logging Targe" sheetId="5" r:id="rId8"/>
+    <sheet name="Darkwake - Darkwake Calculator " sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>CSR-Active-Config Calculator for macOS 10.11 to 12</t>
   </si>
@@ -146,7 +146,7 @@
     <t>0x26F</t>
   </si>
   <si>
-    <t>0x867</t>
+    <t>0xFEF</t>
   </si>
   <si>
     <t>0x7FF</t>
@@ -167,7 +167,7 @@
     <t>6F 02 00 00</t>
   </si>
   <si>
-    <t>67 08 00 00</t>
+    <t>EF 0F 00 00</t>
   </si>
   <si>
     <t>FF 07 00 00</t>
@@ -368,34 +368,67 @@
     <t>ExposeSensitiveData</t>
   </si>
   <si>
-    <t>Logging Targets Calculator (OC 0.7.4+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable logging, otherwise all log is discarded. </t>
-  </si>
-  <si>
-    <t>Enable basic console (onscreen) logging</t>
-  </si>
-  <si>
-    <t>Enable logging to Data Hub</t>
-  </si>
-  <si>
-    <t>Enable serial port logging.</t>
-  </si>
-  <si>
-    <t>Enable UEFI variable logging.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable non-volatile UEFI variable logging. </t>
-  </si>
-  <si>
-    <t>Enable logging to file.</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For debugging OC boot issues </t>
+    <t>Darkwake Calculator (for macOS 10.10 and newer)</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>DarkWake Flag</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Supposedly disables darkwake</t>
+  </si>
+  <si>
+    <t>HID Tickle Early</t>
+  </si>
+  <si>
+    <t>Helps with wake from lid, may require pwr-button press to wake in addition</t>
+  </si>
+  <si>
+    <t>HID Tickle Late</t>
+  </si>
+  <si>
+    <t>Helps single keypress wake but disables auto-sleep</t>
+  </si>
+  <si>
+    <t>HID Tickle None</t>
+  </si>
+  <si>
+    <t>Default darkwake value if none is set</t>
+  </si>
+  <si>
+    <t>HID Tickle Mask</t>
+  </si>
+  <si>
+    <t>Alarm Is Dark</t>
+  </si>
+  <si>
+    <t>To be explored</t>
+  </si>
+  <si>
+    <t>Graphics Power State 1</t>
+  </si>
+  <si>
+    <t>Enables wranglerTickled to wake fully from hibernation and RTC</t>
+  </si>
+  <si>
+    <t>Audio Not Suppressed</t>
+  </si>
+  <si>
+    <t>Supposedly helps with audio disappearing after wake</t>
+  </si>
+  <si>
+    <t>darkwake=</t>
   </si>
 </sst>
 </file>
@@ -554,8 +587,9 @@
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
+      <u val="single"/>
+      <sz val="9"/>
+      <color indexed="18"/>
       <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
@@ -597,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="107">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2135,73 +2169,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2767,73 +2741,37 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="103" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="104" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="86" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="105" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="106" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3589,7 +3527,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>: Color Coding: blue = OpenCore; green = Clover</a:t>
+            <a:t>: Color Coding: cyan = OpenCore; green = Clover</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3601,13 +3539,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>51570</xdr:rowOff>
+      <xdr:rowOff>51569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>36472</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>53852</xdr:rowOff>
+      <xdr:rowOff>53851</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3616,7 +3554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="8975860"/>
+          <a:off x="-19050" y="8975859"/>
           <a:ext cx="7504073" cy="4218683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4871,7 +4809,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>Copy the resulting PickerAtrributes value in the green box to your config.plist, save and reboot (Default value: 0)</a:t>
+            <a:t>Copy the resulting PickerAtrributes value in the cyan box to your config.plist, save and reboot (Default value: 0)</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5180,7 +5118,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the resulting ScanPolicy value in the green box to your Config.plist, save and reboot. (Default value: 17760515; To enable all Options: 0) </a:t>
+            <a:t>Copy the resulting ScanPolicy value in the cyan box to your Config.plist, save and reboot. (Default value: 17760515; To enable all Options: 0) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5400,7 +5338,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the resulting ExposeSensitiveData value in the green box to your config.plist, save and reboot. (Default: 6)</a:t>
+            <a:t>Copy the resulting ExposeSensitiveData value in the cyan box to your config.plist, save and reboot. (Default: 6)</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5505,14 +5443,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44813</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44172</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136737</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4752855</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172175</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5521,8 +5459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3566523"/>
-          <a:ext cx="5314673" cy="1778485"/>
+          <a:off x="-19050" y="3033107"/>
+          <a:ext cx="7470656" cy="1591054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5658,7 +5596,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the corresponding values for things you want to log from »Hex Storage« to the »HEX« column to add them to the Logging Target bitmask.</a:t>
+            <a:t>Add the bit value(s) of the flag(s) you want to use to the »Sum« column</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5709,7 +5647,135 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the resulting »Target« value in the green box to your config.plist (Misc &gt; Debug &gt; Target).</a:t>
+            <a:t>Copy the resulting value for darkwake in the cyan box</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Add it to boot-args as </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>darkwake=x (x= 514 in this example)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> of your config.plist </a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Save, reboot test it.</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5761,7 +5827,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5776,42 +5842,47 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Helvetica Neue Medium"/>
+              <a:ea typeface="Helvetica Neue Medium"/>
+              <a:cs typeface="Helvetica Neue Medium"/>
+              <a:sym typeface="Helvetica Neue Medium"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Helvetica Neue Medium"/>
+              <a:ea typeface="Helvetica Neue Medium"/>
+              <a:cs typeface="Helvetica Neue Medium"/>
+              <a:sym typeface="Helvetica Neue Medium"/>
             </a:rPr>
-            <a:t>NOTE</a:t>
+            <a:t>Source: </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0563C1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="0563C1"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Helvetica Neue Medium"/>
+              <a:ea typeface="Helvetica Neue Medium"/>
+              <a:cs typeface="Helvetica Neue Medium"/>
+              <a:sym typeface="Helvetica Neue Medium"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
             </a:rPr>
-            <a:t>: Certain features require additional Terminal commands. Please refer to the Configuration.pdf included in the OpenCore package for further details</a:t>
+            <a:t>Fixing HID Wake Issues</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7252,10 +7323,12 @@
         <v>8</v>
       </c>
       <c r="F10" s="42"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="40">
+        <v>8</v>
+      </c>
       <c r="H10" s="41">
         <f>HEX2DEC(G10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="40">
         <v>8</v>
@@ -7452,10 +7525,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="42"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="40">
+        <v>80</v>
+      </c>
       <c r="H14" s="41">
         <f>HEX2DEC(G14)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I14" s="40">
         <v>80</v>
@@ -7498,10 +7573,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="40">
+        <v>100</v>
+      </c>
       <c r="H15" s="41">
         <f>HEX2DEC(G15)</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="I15" s="40">
         <v>100</v>
@@ -7543,10 +7620,12 @@
         <v>512</v>
       </c>
       <c r="F16" s="42"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="40">
+        <v>200</v>
+      </c>
       <c r="H16" s="41">
         <f>HEX2DEC(G16)</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="I16" s="40">
         <v>200</v>
@@ -7583,10 +7662,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="40">
+        <v>400</v>
+      </c>
       <c r="H17" s="41">
         <f>HEX2DEC(G17)</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="I17" s="48">
         <v>400</v>
@@ -7675,7 +7756,7 @@
       </c>
       <c r="H20" s="79">
         <f>SUM(H7:H18)</f>
-        <v>2151</v>
+        <v>4079</v>
       </c>
       <c r="I20" t="s" s="81">
         <f>"0x"&amp;DEC2HEX(I21,3)</f>
@@ -7724,7 +7805,7 @@
       <c r="F21" s="88"/>
       <c r="G21" s="89">
         <f>DEC2HEX(H20,8)</f>
-        <v>2151</v>
+        <v>4079</v>
       </c>
       <c r="H21" s="90"/>
       <c r="I21" s="89">
@@ -8713,18 +8794,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="187" customWidth="1"/>
-    <col min="2" max="2" width="10.3906" style="187" customWidth="1"/>
-    <col min="3" max="3" width="7.28125" style="187" customWidth="1"/>
-    <col min="4" max="4" width="36.6719" style="187" customWidth="1"/>
-    <col min="5" max="5" width="6.94531" style="187" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="187" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="187" customWidth="1"/>
+    <col min="2" max="2" width="25.9219" style="187" customWidth="1"/>
+    <col min="3" max="3" width="69.5703" style="187" customWidth="1"/>
+    <col min="4" max="4" width="8.10156" style="187" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="187" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -8734,224 +8814,154 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
       <c r="A2" s="188"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="128"/>
-    </row>
-    <row r="3" ht="8.5" customHeight="1">
+      <c r="B2" s="127"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+    </row>
+    <row r="3" ht="17.65" customHeight="1">
       <c r="A3" t="s" s="133">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="190">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="B3" t="s" s="133">
+        <v>111</v>
       </c>
       <c r="C3" t="s" s="133">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s" s="133">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s" s="133">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="23.65" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="191"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="167"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="191"/>
+    </row>
+    <row r="5" ht="16.65" customHeight="1">
+      <c r="A5" s="193">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="194">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s" s="194">
+        <v>115</v>
+      </c>
+      <c r="D5" s="191"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="192">
-        <v>0</v>
-      </c>
-      <c r="B6" s="138">
+      <c r="A6" s="193">
         <v>1</v>
       </c>
-      <c r="C6" s="138">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="139">
-        <v>110</v>
-      </c>
-      <c r="E6" s="140">
-        <f>HEX2DEC(C6)</f>
-        <v>1</v>
-      </c>
+      <c r="B6" t="s" s="194">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s" s="194">
+        <v>117</v>
+      </c>
+      <c r="D6" s="191"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="192">
-        <v>1</v>
-      </c>
-      <c r="B7" s="138">
+      <c r="A7" s="193">
         <v>2</v>
       </c>
-      <c r="C7" s="138">
+      <c r="B7" t="s" s="194">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s" s="194">
+        <v>119</v>
+      </c>
+      <c r="D7" s="195">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="139">
-        <v>111</v>
-      </c>
-      <c r="E7" s="140">
-        <f>HEX2DEC(C7)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="192">
-        <v>2</v>
-      </c>
-      <c r="B8" s="138">
-        <v>4</v>
-      </c>
-      <c r="C8" s="138"/>
-      <c r="D8" t="s" s="139">
-        <v>112</v>
-      </c>
-      <c r="E8" s="140">
-        <f>HEX2DEC(C8)</f>
-        <v>0</v>
-      </c>
+      <c r="A8" s="193">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="194">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s" s="194">
+        <v>121</v>
+      </c>
+      <c r="D8" s="191"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="192">
+      <c r="A9" s="195">
         <v>3</v>
       </c>
-      <c r="B9" s="138">
-        <v>8</v>
-      </c>
-      <c r="C9" s="138"/>
-      <c r="D9" t="s" s="139">
-        <v>113</v>
-      </c>
-      <c r="E9" s="140">
-        <f>HEX2DEC(C9)</f>
-        <v>0</v>
-      </c>
+      <c r="B9" t="s" s="194">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s" s="194">
+        <v>117</v>
+      </c>
+      <c r="D9" s="191"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="192">
-        <v>4</v>
-      </c>
-      <c r="B10" s="138">
-        <v>10</v>
-      </c>
-      <c r="C10" s="138"/>
-      <c r="D10" t="s" s="139">
-        <v>114</v>
-      </c>
-      <c r="E10" s="140">
-        <f>HEX2DEC(C10)</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="195">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s" s="194">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s" s="194">
+        <v>124</v>
+      </c>
+      <c r="D10" s="191"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="192">
-        <v>5</v>
-      </c>
-      <c r="B11" s="138">
-        <v>20</v>
-      </c>
-      <c r="C11" s="138"/>
-      <c r="D11" t="s" s="193">
-        <v>115</v>
-      </c>
-      <c r="E11" s="194">
-        <f>HEX2DEC(C11)</f>
-        <v>0</v>
+      <c r="A11" s="195">
+        <v>512</v>
+      </c>
+      <c r="B11" t="s" s="194">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s" s="194">
+        <v>126</v>
+      </c>
+      <c r="D11" s="195">
+        <v>512</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="192">
-        <v>6</v>
-      </c>
-      <c r="B12" s="138">
-        <v>40</v>
-      </c>
-      <c r="C12" s="138"/>
-      <c r="D12" t="s" s="139">
-        <v>116</v>
-      </c>
-      <c r="E12" s="140">
-        <f>HEX2DEC(C12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.7" customHeight="1">
-      <c r="A13" s="195"/>
+      <c r="A12" s="195">
+        <v>1024</v>
+      </c>
+      <c r="B12" t="s" s="194">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s" s="194">
+        <v>128</v>
+      </c>
+      <c r="D12" s="191"/>
+    </row>
+    <row r="13" ht="16.65" customHeight="1">
+      <c r="A13" s="191"/>
       <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="191"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" t="s" s="199">
-        <v>117</v>
-      </c>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201">
-        <f>SUM(E6:E12)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" s="202"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="205"/>
-    </row>
-    <row r="16" ht="14.7" customHeight="1">
-      <c r="A16" t="s" s="206">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s" s="207">
-        <v>77</v>
-      </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="14.7" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s" s="209">
-        <v>118</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="210">
-        <v>67</v>
+      <c r="A14" t="s" s="197">
+        <v>129</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="198">
+        <f>SUM(D5:D12)</f>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
